--- a/excel/Sound——音效.xlsx
+++ b/excel/Sound——音效.xlsx
@@ -25,7 +25,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>path_1</t>
+    <t>path</t>
   </si>
   <si>
     <t>volume</t>
@@ -90,36 +90,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -134,6 +112,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -142,6 +134,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -149,55 +192,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,21 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -232,8 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,14 +241,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +468,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -504,36 +523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -558,161 +547,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -724,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -799,7 +792,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1052,7 +1045,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/excel/Sound——音效.xlsx
+++ b/excel/Sound——音效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -88,6 +88,22 @@
   </si>
   <si>
     <t>背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,22 +438,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="50.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -448,16 +464,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -468,16 +487,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -488,16 +510,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -508,14 +533,17 @@
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -525,17 +553,20 @@
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -545,262 +576,309 @@
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
